--- a/results/by_outcome/full_results_wealth_PGI.xlsx
+++ b/results/by_outcome/full_results_wealth_PGI.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.856665884253926</v>
+        <v>0.891438339859624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143414279939849</v>
+        <v>0.108676415936547</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00008016419377</v>
+        <v>1.00011475579617</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.143402784171271</v>
+        <v>0.108663946118895</v>
       </c>
       <c r="K2" t="n">
-        <v>0.138118853274994</v>
+        <v>0.102639931948813</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0340739256746411</v>
+        <v>0.010784134150557</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0379614564365621</v>
+        <v>0.0120543342322221</v>
       </c>
       <c r="N2" t="n">
-        <v>0.172192778949635</v>
+        <v>0.11342406609937</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.852778041851235</v>
+        <v>0.890167994015137</v>
       </c>
       <c r="G3" t="n">
-        <v>0.138129925461512</v>
+        <v>0.102651710475922</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.818701384667814</v>
+        <v>0.879382622322679</v>
       </c>
       <c r="I4" t="n">
-        <v>0.140071638544517</v>
+        <v>0.0711199949322839</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.181364240607833</v>
+        <v>0.120718280351117</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143402784171271</v>
+        <v>0.108663946118895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0482783117121098</v>
+        <v>0.0492859953086397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.238527256630431</v>
+        <v>0.16804189692915</v>
       </c>
       <c r="F2" t="n">
-        <v>1790</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.172192778949635</v>
+        <v>0.11342406609937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.059088718841639</v>
+        <v>0.0385876487127879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.285296839057632</v>
+        <v>0.188260483485951</v>
       </c>
       <c r="F3" t="n">
-        <v>1790</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.181364240607833</v>
+        <v>0.120718280351117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0769916320761498</v>
+        <v>0.0429775500358876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.285736849139515</v>
+        <v>0.198459010666346</v>
       </c>
       <c r="F4" t="n">
-        <v>1790</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
